--- a/sandbox/page_rank_analysis_results_v5/page_rank_sumarized_data_post_processed.xlsx
+++ b/sandbox/page_rank_analysis_results_v5/page_rank_sumarized_data_post_processed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="950" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="conjunto de todas as informações" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,252 +15,270 @@
     <sheet name="min 8 top 100 page rank - ministros" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="min 9 top 100 page rank - ministros" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="min 10 top 100 page rank - ministros" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PageRank_versions_decisions_intersection" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="79">
-  <si>
-    <t>Decisões que aparecem pelo menos 8 vezes no top 100 do page rank</t>
-  </si>
-  <si>
-    <t>Decisões que aparecem pelo menos 9 vezes no top 100 do page rank</t>
-  </si>
-  <si>
-    <t>Decisões que aparecem pelo menos 10 vezes no top 100 do page rank</t>
-  </si>
-  <si>
-    <t>Número médio de ocorrência por iteração das decisões que aparecem pelo menos 8 vezes</t>
-  </si>
-  <si>
-    <t>Número médio de decisões na simulação</t>
-  </si>
-  <si>
-    <t>Quantidade de decisões</t>
-  </si>
-  <si>
-    <t>Alg 1</t>
-  </si>
-  <si>
-    <t>Alg 1 2ª simulação</t>
-  </si>
-  <si>
-    <t>Alg 2</t>
-  </si>
-  <si>
-    <t>Alg 2 2ª simulação</t>
-  </si>
-  <si>
-    <t>Número de decisões</t>
-  </si>
-  <si>
-    <t>Porcentagem</t>
-  </si>
-  <si>
-    <t>90% de decisões</t>
-  </si>
-  <si>
-    <t>80% de decisões</t>
-  </si>
-  <si>
-    <t>70% de decisões</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Ministros</t>
-  </si>
-  <si>
-    <t>CÁRMEN LÚCIA</t>
-  </si>
-  <si>
-    <t>MARCO AURÉLIO</t>
-  </si>
-  <si>
-    <t>GILMAR MENDES</t>
-  </si>
-  <si>
-    <t>DIAS TOFFOLI</t>
-  </si>
-  <si>
-    <t>RICARDO LEWANDOWSKI</t>
-  </si>
-  <si>
-    <t>ELLEN GRACIE</t>
-  </si>
-  <si>
-    <t>LUIZ FUX</t>
-  </si>
-  <si>
-    <t>ROSA WEBER</t>
-  </si>
-  <si>
-    <t>JOAQUIM BARBOSA</t>
-  </si>
-  <si>
-    <t>CEZAR PELUSO</t>
-  </si>
-  <si>
-    <t>Number of decisions which appear on simulations</t>
-  </si>
-  <si>
-    <t>Number of decisions which could be in all iterations</t>
-  </si>
-  <si>
-    <t>Number of items whose frequency is higher than 1</t>
-  </si>
-  <si>
-    <t>Desvio padrão de ocorrência das decisões que aparecem pelo menos 8 vezes nas 10 iterações</t>
-  </si>
-  <si>
-    <t>Desvio padrão do número de decisões na simulação</t>
-  </si>
-  <si>
-    <t>Presença de decisões do Ministro no top 100 de 90%</t>
-  </si>
-  <si>
-    <t>Presença de decisões do Ministro no top 100 de 80%</t>
-  </si>
-  <si>
-    <t># de ministros presentes no top 100</t>
-  </si>
-  <si>
-    <t>Mean of virtual decisions</t>
-  </si>
-  <si>
-    <t>Standard deviation of virtual decisions</t>
-  </si>
-  <si>
-    <t>Presença de decisões do Ministro no top 100 de 70%</t>
-  </si>
-  <si>
-    <t>Number of decisions</t>
-  </si>
-  <si>
-    <t>Ministro</t>
-  </si>
-  <si>
-    <t>without sim.</t>
-  </si>
-  <si>
-    <t>with sim.</t>
-  </si>
-  <si>
-    <t># de decisões no BD</t>
-  </si>
-  <si>
-    <t>Time spent in hours for each simulation</t>
-  </si>
-  <si>
-    <t>2ª simulação obteve ainda mais robustez que a anterior</t>
-  </si>
-  <si>
-    <t>Decisão virtual que se destacou mais nas simulações de cada ministro</t>
-  </si>
-  <si>
-    <t>ministro</t>
-  </si>
-  <si>
-    <t>dados coletados de 02/01/2001 a 01/01/2017</t>
-  </si>
-  <si>
-    <t>AGR RE 494426</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Número de acórdãos: 76378</t>
-  </si>
-  <si>
-    <t>AGR AI 483092</t>
-  </si>
-  <si>
-    <t>ED AGR RE 286690</t>
-  </si>
-  <si>
-    <t>AC – embargo declaratório não possui ficha, apenas existe a nformação dele no acompanhamento processual do RE originário</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ADI 3013</t>
-  </si>
-  <si>
-    <t>AC - não é possível encontrar ficha na busca nem link de jurisprudência em acompanhamento processual</t>
-  </si>
-  <si>
-    <t>AGR AI 427472</t>
-  </si>
-  <si>
-    <t>AC – link em acompanhamento processual aponta para acórdão diferente. O acórdao buscado é um acõrdão similar (decisão no mesmo sentido)</t>
-  </si>
-  <si>
-    <t>AGR AI 504001</t>
-  </si>
-  <si>
-    <t>decisões virtuais são alavancadas porque recebem valor de pr de outras decisões, mas seu valor não é somado em outras decisões pois elas não apontam para nenhuma outra. Logo recebem, mas não dão valores</t>
-  </si>
-  <si>
-    <t>lembrei que existem alguns poucos acórdãos que estão repetidos no BD</t>
-  </si>
-  <si>
-    <t>ACOMPANHAMENTO PROCESSUAL</t>
-  </si>
-  <si>
-    <t>necessário tomar cuidado com o caso em que se concorda com parte da decisão do relator e se discorda de parte dela</t>
-  </si>
-  <si>
-    <t>Tempo total</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Dias</t>
-  </si>
-  <si>
-    <t>nos termos do voto do relator</t>
-  </si>
-  <si>
-    <t>vencido(, em parte,)? o presidente</t>
-  </si>
-  <si>
-    <t>fazer busca com termos usados aqui e refiná-la conforme resultados são obtidos</t>
-  </si>
-  <si>
-    <t>unanimidade, unânime</t>
-  </si>
-  <si>
-    <t>o ideal é usar o acompanhamento processual que possui mais informações que a ficha</t>
-  </si>
-  <si>
-    <t>vencido o ministro-relator (vencido, em parte, o relator)</t>
-  </si>
-  <si>
-    <t>palavra vencid(os?|as?)? Pode ser usada para descobrir formas de se ver o relator vencido de alguma forma</t>
-  </si>
-  <si>
-    <t>vencidos os ministros [^\(]+(relatora?)</t>
-  </si>
-  <si>
-    <t>Percentage of decisions</t>
-  </si>
-  <si>
-    <t>Chi-square test</t>
-  </si>
-  <si>
-    <t>p value</t>
-  </si>
-  <si>
-    <t>Minister-rapporteur</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="83">
+  <si>
+    <t xml:space="preserve">Decisões que aparecem pelo menos 8 vezes no top 100 do page rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisões que aparecem pelo menos 9 vezes no top 100 do page rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisões que aparecem pelo menos 10 vezes no top 100 do page rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número médio de ocorrência por iteração das decisões que aparecem pelo menos 8 vezes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número médio de decisões na simulação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de decisões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alg 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alg 1 2ª simulação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alg 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alg 2 2ª simulação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de decisões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90% de decisões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80% de decisões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70% de decisões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÁRMEN LÚCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCO AURÉLIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILMAR MENDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAS TOFFOLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO LEWANDOWSKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELLEN GRACIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ FUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSA WEBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAQUIM BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEZAR PELUSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of decisions which appear on simulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of decisions which could be in all iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of items whose frequency is higher than 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desvio padrão de ocorrência das decisões que aparecem pelo menos 8 vezes nas 10 iterações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desvio padrão do número de decisões na simulação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presença de decisões do Ministro no top 100 de 90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presença de decisões do Ministro no top 100 de 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número médio de decisões na simulação (sem iteração 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># de ministros presentes no top 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean of virtual decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard deviation of virtual decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presença de decisões do Ministro no top 100 de 70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without sim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with sim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># de decisões no BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time spent in hours for each simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ª simulação obteve ainda mais robustez que a anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisão virtual que se destacou mais nas simulações de cada ministro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ministro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dados coletados de 02/01/2001 a 01/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGR RE 494426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de acórdãos: 76378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGR AI 483092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED AGR RE 286690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC – embargo declaratório não possui ficha, apenas existe a nformação dele no acompanhamento processual do RE originário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADI 3013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC - não é possível encontrar ficha na busca nem link de jurisprudência em acompanhamento processual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGR AI 427472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC – link em acompanhamento processual aponta para acórdão diferente. O acórdao buscado é um acõrdão similar (decisão no mesmo sentido)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGR AI 504001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decisões virtuais são alavancadas porque recebem valor de pr de outras decisões, mas seu valor não é somado em outras decisões pois elas não apontam para nenhuma outra. Logo recebem, mas não dão valores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lembrei que existem alguns poucos acórdãos que estão repetidos no BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOMPANHAMENTO PROCESSUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">necessário tomar cuidado com o caso em que se concorda com parte da decisão do relator e se discorda de parte dela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nos termos do voto do relator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vencido(, em parte,)? o presidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fazer busca com termos usados aqui e refiná-la conforme resultados são obtidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unanimidade, unânime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o ideal é usar o acompanhamento processual que possui mais informações que a ficha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vencido o ministro-relator (vencido, em parte, o relator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palavra vencid(os?|as?)? Pode ser usada para descobrir formas de se ver o relator vencido de alguma forma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vencidos os ministros [^\(]+(relatora?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of decisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi-square test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minister-rapporteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of decisions in the PageRankTop100 between PageRank versions 1 and 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de decisões simuladas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de decisões na intersecção</t>
   </si>
 </sst>
 </file>
@@ -268,11 +286,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -294,6 +312,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,12 +328,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -337,7 +369,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,10 +386,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,8 +394,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -382,12 +410,11 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <sz val="10"/>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
-        <charset val="1"/>
       </font>
-      <numFmt numFmtId="164" formatCode="GENERAL"/>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -457,6 +484,7 @@
       <sheetName val="stf_pr_2_acordaos_90_par_rel_10"/>
     </sheetNames>
     <sheetDataSet>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="A6" t="str">
@@ -1569,6 +1597,47 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1579,30 +1648,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ91"/>
+  <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI74" activeCellId="0" sqref="AI74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF43" activeCellId="0" sqref="AF43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="19.7448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="17.765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.5204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="14" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="4.60714285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.5612244897959"/>
-    <col collapsed="false" hidden="false" max="25" min="21" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8214285714286"/>
-    <col collapsed="false" hidden="false" max="33" min="27" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.9897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="1" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="14" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="4.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="21" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="27" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="50.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="35" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1613,7 +1682,6 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="0"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1689,6 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="0"/>
       <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1632,30 +1699,9 @@
       <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1673,7 +1719,6 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0"/>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1734,6 @@
       <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="0"/>
       <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1782,6 @@
       <c r="AE2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="0"/>
       <c r="AG2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1754,15 +1797,9 @@
       <c r="AK2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="0"/>
-      <c r="AM2" s="0"/>
-      <c r="AN2" s="0"/>
-      <c r="AO2" s="0"/>
-      <c r="AP2" s="0"/>
-      <c r="AQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -1777,8 +1814,7 @@
       <c r="E3" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -1793,8 +1829,7 @@
       <c r="K3" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="L3" s="0"/>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="1" t="n">
@@ -1809,41 +1844,39 @@
       <c r="Q3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="1" t="n">
         <v>76.7</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="1" t="n">
         <v>52.8</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="1" t="n">
         <v>87799.9</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="1" t="n">
         <v>87813.5</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="1" t="n">
         <v>87815.3</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="1" t="n">
         <v>87770.4</v>
       </c>
       <c r="AE3" s="1" t="n">
         <v>96452</v>
       </c>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
       <c r="AH3" s="1" t="n">
         <f aca="false">AA3/$AE3</f>
         <v>0.910296313192054</v>
@@ -1860,7 +1893,6 @@
         <f aca="false">AD3/$AE3</f>
         <v>0.909990461576743</v>
       </c>
-      <c r="AL3" s="0"/>
       <c r="AM3" s="1" t="n">
         <f aca="false">(AA3*10 - $AE3)/9/$AE3</f>
         <v>0.90032923688006</v>
@@ -1877,10 +1909,9 @@
         <f aca="false">(AD3*10 - $AE3)/9/$AE3</f>
         <v>0.899989401751937</v>
       </c>
-      <c r="AQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -1895,8 +1926,7 @@
       <c r="E4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -1911,8 +1941,7 @@
       <c r="K4" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="L4" s="0"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="1" t="n">
@@ -1927,41 +1956,39 @@
       <c r="Q4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="1" t="n">
         <v>46.8</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="1" t="n">
         <v>50.6</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="1" t="n">
         <v>41.1</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="1" t="n">
         <v>36.3</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>79012.2</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>79089.2</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>79124.8</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>79086.5</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>96452</v>
       </c>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
       <c r="AH4" s="1" t="n">
         <f aca="false">AA4/$AE4</f>
         <v>0.819186745738813</v>
@@ -1978,7 +2005,6 @@
         <f aca="false">AD4/$AE4</f>
         <v>0.819957077095343</v>
       </c>
-      <c r="AL4" s="0"/>
       <c r="AM4" s="1" t="n">
         <f aca="false">(AA4*10 - $AE4)/9/$AE4</f>
         <v>0.799096384154237</v>
@@ -1995,10 +2021,9 @@
         <f aca="false">(AD4*10 - $AE4)/9/$AE4</f>
         <v>0.799952307883714</v>
       </c>
-      <c r="AQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -2013,8 +2038,7 @@
       <c r="E5" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -2029,8 +2053,7 @@
       <c r="K5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L5" s="0"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="1" t="n">
@@ -2045,41 +2068,39 @@
       <c r="Q5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="1" t="n">
         <v>25.3</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="1" t="n">
         <v>15.7</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="1" t="n">
         <v>23.8</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="1" t="n">
         <v>70440.5</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="1" t="n">
         <v>70461.4</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="1" t="n">
         <v>70449.9</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="1" t="n">
         <v>70405.3</v>
       </c>
       <c r="AE5" s="1" t="n">
         <v>96452</v>
       </c>
-      <c r="AF5" s="0"/>
-      <c r="AG5" s="0"/>
       <c r="AH5" s="1" t="n">
         <f aca="false">AA5/$AE5</f>
         <v>0.730316634180732</v>
@@ -2096,7 +2117,6 @@
         <f aca="false">AD5/$AE5</f>
         <v>0.729951685812632</v>
       </c>
-      <c r="AL5" s="0"/>
       <c r="AM5" s="1" t="n">
         <f aca="false">(AA5*10 - $AE5)/9/$AE5</f>
         <v>0.700351815756369</v>
@@ -2113,7 +2133,6 @@
         <f aca="false">(AD5*10 - $AE5)/9/$AE5</f>
         <v>0.699946317569591</v>
       </c>
-      <c r="AQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2135,7 +2154,6 @@
         <f aca="false">AVERAGE(E3:E5)</f>
         <v>43.6666666666667</v>
       </c>
-      <c r="F6" s="0"/>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2155,8 +2173,6 @@
         <f aca="false">AVERAGE(K3:K5)</f>
         <v>20.6666666666667</v>
       </c>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
       <c r="N6" s="1" t="n">
         <f aca="false">AVERAGE(N3:N5)</f>
         <v>12</v>
@@ -2173,71 +2189,6 @@
         <f aca="false">AVERAGE(Q3:Q5)</f>
         <v>6.33333333333333</v>
       </c>
-      <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Z6" s="0"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
-      <c r="AH6" s="0"/>
-      <c r="AI6" s="0"/>
-      <c r="AJ6" s="0"/>
-      <c r="AK6" s="0"/>
-      <c r="AL6" s="0"/>
-      <c r="AM6" s="0"/>
-      <c r="AN6" s="0"/>
-      <c r="AO6" s="0"/>
-      <c r="AP6" s="0"/>
-      <c r="AQ6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-      <c r="AM7" s="0"/>
-      <c r="AN7" s="0"/>
-      <c r="AO7" s="0"/>
-      <c r="AP7" s="0"/>
-      <c r="AQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -2247,7 +2198,6 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="0"/>
       <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2205,6 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="0"/>
       <c r="M8" s="2" t="s">
         <v>2</v>
       </c>
@@ -2266,30 +2215,9 @@
       <c r="T8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-      <c r="AM8" s="0"/>
-      <c r="AN8" s="0"/>
-      <c r="AO8" s="0"/>
-      <c r="AP8" s="0"/>
-      <c r="AQ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -2307,7 +2235,6 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="0"/>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2250,6 @@
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2372,18 +2298,6 @@
       <c r="AE9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
-      <c r="AH9" s="0"/>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
-      <c r="AK9" s="0"/>
-      <c r="AL9" s="0"/>
-      <c r="AM9" s="0"/>
-      <c r="AN9" s="0"/>
-      <c r="AO9" s="0"/>
-      <c r="AP9" s="0"/>
-      <c r="AQ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2420,7 +2334,6 @@
       <c r="K10" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2439,13 +2352,13 @@
       <c r="T10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="4" t="n">
+      <c r="U10" s="1" t="n">
         <v>86.2</v>
       </c>
-      <c r="V10" s="4" t="n">
+      <c r="V10" s="1" t="n">
         <v>88.3</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="1" t="n">
         <v>87.4</v>
       </c>
       <c r="X10" s="1" t="n">
@@ -2454,16 +2367,16 @@
       <c r="Z10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA10" s="4" t="n">
+      <c r="AA10" s="1" t="n">
         <v>6632.4</v>
       </c>
-      <c r="AB10" s="4" t="n">
+      <c r="AB10" s="1" t="n">
         <v>6632.4</v>
       </c>
-      <c r="AC10" s="4" t="n">
+      <c r="AC10" s="1" t="n">
         <v>6632.8</v>
       </c>
-      <c r="AD10" s="4" t="n">
+      <c r="AD10" s="1" t="n">
         <v>6632.6</v>
       </c>
       <c r="AE10" s="1" t="n">
@@ -2472,7 +2385,6 @@
       <c r="AF10" s="1" t="n">
         <v>7273</v>
       </c>
-      <c r="AG10" s="0"/>
       <c r="AH10" s="1" t="n">
         <f aca="false">AA10/$AE10</f>
         <v>0.910043907793633</v>
@@ -2489,7 +2401,6 @@
         <f aca="false">AD10/$AE10</f>
         <v>0.910071350164654</v>
       </c>
-      <c r="AL10" s="0"/>
       <c r="AM10" s="1" t="n">
         <f aca="false">(AA10*10 - $AE10)/9/$AE10</f>
         <v>0.90004878643737</v>
@@ -2506,7 +2417,6 @@
         <f aca="false">(AD10*10 - $AE10)/9/$AE10</f>
         <v>0.900079277960727</v>
       </c>
-      <c r="AQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -2543,7 +2453,6 @@
       <c r="K11" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2562,31 +2471,31 @@
       <c r="T11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="1" t="n">
         <v>85.6</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="V11" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X11" s="1" t="n">
         <v>86</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="1" t="n">
         <v>6765.1</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="1" t="n">
         <v>6737.1</v>
       </c>
-      <c r="AC11" s="4" t="n">
+      <c r="AC11" s="1" t="n">
         <v>6748.7</v>
       </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AD11" s="1" t="n">
         <v>6739.4</v>
       </c>
       <c r="AE11" s="1" t="n">
@@ -2595,7 +2504,6 @@
       <c r="AF11" s="1" t="n">
         <v>6429</v>
       </c>
-      <c r="AG11" s="0"/>
       <c r="AH11" s="1" t="n">
         <f aca="false">AA11/$AE11</f>
         <v>0.912968960863698</v>
@@ -2612,7 +2520,6 @@
         <f aca="false">AD11/$AE11</f>
         <v>0.909500674763832</v>
       </c>
-      <c r="AL11" s="0"/>
       <c r="AM11" s="1" t="n">
         <f aca="false">(AA11*10 - $AE11)/9/$AE11</f>
         <v>0.903298845404109</v>
@@ -2629,7 +2536,6 @@
         <f aca="false">(AD11*10 - $AE11)/9/$AE11</f>
         <v>0.899445194182036</v>
       </c>
-      <c r="AQ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -2666,7 +2572,6 @@
       <c r="K12" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2685,31 +2590,31 @@
       <c r="T12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="1" t="n">
         <v>90.3</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="1" t="n">
         <v>85.9</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="1" t="n">
         <v>88.3</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="1" t="n">
         <v>87.9</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="1" t="n">
         <v>6439.5</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="1" t="n">
         <v>6407.8</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="1" t="n">
         <v>6435.4</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="1" t="n">
         <v>6456.9</v>
       </c>
       <c r="AE12" s="1" t="n">
@@ -2718,7 +2623,6 @@
       <c r="AF12" s="1" t="n">
         <v>5975</v>
       </c>
-      <c r="AG12" s="0"/>
       <c r="AH12" s="1" t="n">
         <f aca="false">AA12/$AE12</f>
         <v>0.909533898305085</v>
@@ -2735,7 +2639,6 @@
         <f aca="false">AD12/$AE12</f>
         <v>0.911991525423729</v>
       </c>
-      <c r="AL12" s="0"/>
       <c r="AM12" s="1" t="n">
         <f aca="false">(AA12*10 - $AE12)/9/$AE12</f>
         <v>0.899482109227872</v>
@@ -2752,7 +2655,6 @@
         <f aca="false">(AD12*10 - $AE12)/9/$AE12</f>
         <v>0.902212806026365</v>
       </c>
-      <c r="AQ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2789,7 +2691,6 @@
       <c r="K13" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,31 +2709,31 @@
       <c r="T13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="4" t="n">
+      <c r="U13" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="V13" s="4" t="n">
+      <c r="V13" s="1" t="n">
         <v>59.9</v>
       </c>
-      <c r="W13" s="4" t="n">
+      <c r="W13" s="1" t="n">
         <v>60.8</v>
       </c>
-      <c r="X13" s="4" t="n">
+      <c r="X13" s="1" t="n">
         <v>57.9</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA13" s="4" t="n">
+      <c r="AA13" s="1" t="n">
         <v>4969.6</v>
       </c>
-      <c r="AB13" s="4" t="n">
+      <c r="AB13" s="1" t="n">
         <v>4969.7</v>
       </c>
-      <c r="AC13" s="4" t="n">
+      <c r="AC13" s="1" t="n">
         <v>4969.6</v>
       </c>
-      <c r="AD13" s="4" t="n">
+      <c r="AD13" s="1" t="n">
         <v>4969.6</v>
       </c>
       <c r="AE13" s="1" t="n">
@@ -2841,7 +2742,6 @@
       <c r="AF13" s="1" t="n">
         <v>5461</v>
       </c>
-      <c r="AG13" s="0"/>
       <c r="AH13" s="1" t="n">
         <f aca="false">AA13/$AE13</f>
         <v>0.909849871841816</v>
@@ -2858,7 +2758,6 @@
         <f aca="false">AD13/$AE13</f>
         <v>0.909849871841816</v>
       </c>
-      <c r="AL13" s="0"/>
       <c r="AM13" s="1" t="n">
         <f aca="false">(AA13*10 - $AE13)/9/$AE13</f>
         <v>0.899833190935351</v>
@@ -2875,7 +2774,6 @@
         <f aca="false">(AD13*10 - $AE13)/9/$AE13</f>
         <v>0.899833190935351</v>
       </c>
-      <c r="AQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -2893,11 +2791,9 @@
       <c r="E14" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" s="1" t="e">
         <f aca="false">VLOOKUP(A14,[1]stf_pr_1_acordaos_70!A10:A27,1,0)</f>
-        <is>
-          <t/>
-        </is>
+        <v>#N/A</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
@@ -2914,7 +2810,6 @@
       <c r="K14" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2933,31 +2828,31 @@
       <c r="T14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="1" t="n">
         <v>84.4</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="1" t="n">
         <v>83.9</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="1" t="n">
         <v>4512.5</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="1" t="n">
         <v>4512.5</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="1" t="n">
         <v>4512.5</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="1" t="n">
         <v>4512.6</v>
       </c>
       <c r="AE14" s="1" t="n">
@@ -2966,7 +2861,6 @@
       <c r="AF14" s="1" t="n">
         <v>4959</v>
       </c>
-      <c r="AG14" s="0"/>
       <c r="AH14" s="1" t="n">
         <f aca="false">AA14/$AE14</f>
         <v>0.909961685823755</v>
@@ -2983,7 +2877,6 @@
         <f aca="false">AD14/$AE14</f>
         <v>0.909981851179673</v>
       </c>
-      <c r="AL14" s="0"/>
       <c r="AM14" s="1" t="n">
         <f aca="false">(AA14*10 - $AE14)/9/$AE14</f>
         <v>0.899957428693061</v>
@@ -3000,7 +2893,6 @@
         <f aca="false">(AD14*10 - $AE14)/9/$AE14</f>
         <v>0.899979834644081</v>
       </c>
-      <c r="AQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -3037,7 +2929,6 @@
       <c r="K15" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
@@ -3056,31 +2947,31 @@
       <c r="T15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="1" t="n">
         <v>85.4</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="1" t="n">
         <v>90.5</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="1" t="n">
         <v>82.8</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="1" t="n">
         <v>5673.6</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="1" t="n">
         <v>5670.3</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="1" t="n">
         <v>5662.4</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="1" t="n">
         <v>5661.2</v>
       </c>
       <c r="AE15" s="1" t="n">
@@ -3089,7 +2980,6 @@
       <c r="AF15" s="1" t="n">
         <v>4752</v>
       </c>
-      <c r="AG15" s="0"/>
       <c r="AH15" s="1" t="n">
         <f aca="false">AA15/$AE15</f>
         <v>0.912007715801318</v>
@@ -3106,7 +2996,6 @@
         <f aca="false">AD15/$AE15</f>
         <v>0.910014467127471</v>
       </c>
-      <c r="AL15" s="0"/>
       <c r="AM15" s="1" t="n">
         <f aca="false">(AA15*10 - $AE15)/9/$AE15</f>
         <v>0.902230795334798</v>
@@ -3123,7 +3012,6 @@
         <f aca="false">(AD15*10 - $AE15)/9/$AE15</f>
         <v>0.900016074586079</v>
       </c>
-      <c r="AQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -3141,11 +3029,9 @@
       <c r="E16" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" s="1" t="e">
         <f aca="false">VLOOKUP(A16,[1]stf_pr_1_acordaos_70!A12:A29,1,0)</f>
-        <is>
-          <t/>
-        </is>
+        <v>#N/A</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
@@ -3162,7 +3048,6 @@
       <c r="K16" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3181,31 +3066,31 @@
       <c r="T16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="4" t="n">
+      <c r="U16" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="V16" s="4" t="n">
+      <c r="V16" s="1" t="n">
         <v>83.4</v>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="W16" s="1" t="n">
         <v>87.8</v>
       </c>
-      <c r="X16" s="4" t="n">
+      <c r="X16" s="1" t="n">
         <v>79.4</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="1" t="n">
         <v>3333.7</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="1" t="n">
         <v>3333.7</v>
       </c>
-      <c r="AC16" s="4" t="n">
+      <c r="AC16" s="1" t="n">
         <v>3333.7</v>
       </c>
-      <c r="AD16" s="4" t="n">
+      <c r="AD16" s="1" t="n">
         <v>3333.7</v>
       </c>
       <c r="AE16" s="1" t="n">
@@ -3214,7 +3099,6 @@
       <c r="AF16" s="1" t="n">
         <v>3664</v>
       </c>
-      <c r="AG16" s="0"/>
       <c r="AH16" s="1" t="n">
         <f aca="false">AA16/$AE16</f>
         <v>0.909852620087336</v>
@@ -3231,7 +3115,6 @@
         <f aca="false">AD16/$AE16</f>
         <v>0.909852620087336</v>
       </c>
-      <c r="AL16" s="0"/>
       <c r="AM16" s="1" t="n">
         <f aca="false">(AA16*10 - $AE16)/9/$AE16</f>
         <v>0.899836244541485</v>
@@ -3248,7 +3131,6 @@
         <f aca="false">(AD16*10 - $AE16)/9/$AE16</f>
         <v>0.899836244541485</v>
       </c>
-      <c r="AQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -3266,11 +3148,9 @@
       <c r="E17" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" s="1" t="e">
         <f aca="false">VLOOKUP(A17,[1]stf_pr_1_acordaos_70!A13:A30,1,0)</f>
-        <is>
-          <t/>
-        </is>
+        <v>#N/A</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>24</v>
@@ -3287,7 +3167,6 @@
       <c r="K17" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3306,31 +3185,31 @@
       <c r="T17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="V17" s="1" t="n">
         <v>84.6</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="W17" s="1" t="n">
         <v>80.9</v>
       </c>
-      <c r="X17" s="4" t="n">
+      <c r="X17" s="1" t="n">
         <v>84.1</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="1" t="n">
         <v>3048.6</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AB17" s="1" t="n">
         <v>3048.6</v>
       </c>
-      <c r="AC17" s="4" t="n">
+      <c r="AC17" s="1" t="n">
         <v>3048.6</v>
       </c>
-      <c r="AD17" s="4" t="n">
+      <c r="AD17" s="1" t="n">
         <v>3048.6</v>
       </c>
       <c r="AE17" s="1" t="n">
@@ -3339,7 +3218,6 @@
       <c r="AF17" s="1" t="n">
         <v>3351</v>
       </c>
-      <c r="AG17" s="0"/>
       <c r="AH17" s="1" t="n">
         <f aca="false">AA17/$AE17</f>
         <v>0.909758281110116</v>
@@ -3356,7 +3234,6 @@
         <f aca="false">AD17/$AE17</f>
         <v>0.909758281110116</v>
       </c>
-      <c r="AL17" s="0"/>
       <c r="AM17" s="1" t="n">
         <f aca="false">(AA17*10 - $AE17)/9/$AE17</f>
         <v>0.899731423455685</v>
@@ -3373,7 +3250,6 @@
         <f aca="false">(AD17*10 - $AE17)/9/$AE17</f>
         <v>0.899731423455685</v>
       </c>
-      <c r="AQ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -3410,7 +3286,6 @@
       <c r="K18" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
         <v>25</v>
       </c>
@@ -3429,31 +3304,31 @@
       <c r="T18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="1" t="n">
         <v>82.9</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="1" t="n">
         <v>79.7</v>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="W18" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="X18" s="4" t="n">
+      <c r="X18" s="1" t="n">
         <v>83.8</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="1" t="n">
         <v>3223.7</v>
       </c>
-      <c r="AB18" s="4" t="n">
+      <c r="AB18" s="1" t="n">
         <v>3222.5</v>
       </c>
-      <c r="AC18" s="4" t="n">
+      <c r="AC18" s="1" t="n">
         <v>3216.6</v>
       </c>
-      <c r="AD18" s="4" t="n">
+      <c r="AD18" s="1" t="n">
         <v>3231.2</v>
       </c>
       <c r="AE18" s="1" t="n">
@@ -3462,7 +3337,6 @@
       <c r="AF18" s="1" t="n">
         <v>3338</v>
       </c>
-      <c r="AG18" s="0"/>
       <c r="AH18" s="1" t="n">
         <f aca="false">AA18/$AE18</f>
         <v>0.910392544478961</v>
@@ -3479,7 +3353,6 @@
         <f aca="false">AD18/$AE18</f>
         <v>0.912510590228749</v>
       </c>
-      <c r="AL18" s="0"/>
       <c r="AM18" s="1" t="n">
         <f aca="false">(AA18*10 - $AE18)/9/$AE18</f>
         <v>0.900436160532179</v>
@@ -3496,7 +3369,6 @@
         <f aca="false">(AD18*10 - $AE18)/9/$AE18</f>
         <v>0.90278954469861</v>
       </c>
-      <c r="AQ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -3533,7 +3405,6 @@
       <c r="K19" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
         <v>26</v>
       </c>
@@ -3552,31 +3423,31 @@
       <c r="T19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="1" t="n">
         <v>89.2</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="1" t="n">
         <v>85.8</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="1" t="n">
         <v>81.5</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="X19" s="1" t="n">
         <v>79.6</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="1" t="n">
         <v>3662.1</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="1" t="n">
         <v>3643.3</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="1" t="n">
         <v>3656.7</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="1" t="n">
         <v>3639</v>
       </c>
       <c r="AE19" s="1" t="n">
@@ -3585,7 +3456,6 @@
       <c r="AF19" s="1" t="n">
         <v>3332</v>
       </c>
-      <c r="AG19" s="0"/>
       <c r="AH19" s="1" t="n">
         <f aca="false">AA19/$AE19</f>
         <v>0.913241895261845</v>
@@ -3602,7 +3472,6 @@
         <f aca="false">AD19/$AE19</f>
         <v>0.907481296758105</v>
       </c>
-      <c r="AL19" s="0"/>
       <c r="AM19" s="1" t="n">
         <f aca="false">(AA19*10 - $AE19)/9/$AE19</f>
         <v>0.903602105846495</v>
@@ -3619,7 +3488,6 @@
         <f aca="false">(AD19*10 - $AE19)/9/$AE19</f>
         <v>0.897201440842339</v>
       </c>
-      <c r="AQ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -3660,7 +3528,6 @@
         <f aca="false">AVERAGE(K10:K19)</f>
         <v>64.8</v>
       </c>
-      <c r="L20" s="0"/>
       <c r="M20" s="1" t="s">
         <v>15</v>
       </c>
@@ -3680,16 +3547,6 @@
         <f aca="false">AVERAGE( Q10:Q19)</f>
         <v>27.5</v>
       </c>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
-      <c r="AB20" s="0"/>
-      <c r="AC20" s="0"/>
-      <c r="AD20" s="0"/>
       <c r="AE20" s="1" t="n">
         <f aca="false">SUM(AE10:AE19)</f>
         <v>52986</v>
@@ -3698,182 +3555,26 @@
         <f aca="false">SUM(AF10:AF19)</f>
         <v>48534</v>
       </c>
-      <c r="AG20" s="0"/>
-      <c r="AH20" s="0"/>
-      <c r="AI20" s="0"/>
-      <c r="AJ20" s="0"/>
-      <c r="AK20" s="0"/>
-      <c r="AL20" s="0"/>
-      <c r="AN20" s="0"/>
-      <c r="AO20" s="0"/>
-      <c r="AP20" s="0"/>
-      <c r="AQ20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
-      <c r="AE21" s="0"/>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0"/>
-      <c r="AI21" s="0"/>
-      <c r="AJ21" s="0"/>
-      <c r="AK21" s="0"/>
-      <c r="AL21" s="0"/>
-      <c r="AN21" s="0"/>
-      <c r="AO21" s="0"/>
-      <c r="AP21" s="0"/>
-      <c r="AQ21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0"/>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
-      <c r="AE22" s="0"/>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0"/>
-      <c r="AI22" s="0"/>
-      <c r="AJ22" s="0"/>
-      <c r="AK22" s="0"/>
-      <c r="AL22" s="0"/>
-      <c r="AN22" s="0"/>
-      <c r="AO22" s="0"/>
-      <c r="AP22" s="0"/>
-      <c r="AQ22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="0"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
-      <c r="AB23" s="0"/>
-      <c r="AC23" s="0"/>
-      <c r="AD23" s="0"/>
-      <c r="AE23" s="0"/>
-      <c r="AG23" s="0"/>
-      <c r="AH23" s="0"/>
-      <c r="AI23" s="0"/>
-      <c r="AJ23" s="0"/>
-      <c r="AK23" s="0"/>
-      <c r="AL23" s="0"/>
-      <c r="AN23" s="0"/>
-      <c r="AO23" s="0"/>
-      <c r="AP23" s="0"/>
-      <c r="AQ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
       <c r="G24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
       <c r="M24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="T24" s="4" t="s">
+      <c r="T24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U24" s="0"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0"/>
-      <c r="Z24" s="4" t="s">
+      <c r="Z24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA24" s="0"/>
-      <c r="AB24" s="0"/>
-      <c r="AC24" s="0"/>
-      <c r="AD24" s="0"/>
-      <c r="AE24" s="0"/>
-      <c r="AG24" s="0"/>
-      <c r="AH24" s="0"/>
-      <c r="AI24" s="0"/>
-      <c r="AJ24" s="0"/>
-      <c r="AK24" s="0"/>
-      <c r="AL24" s="0"/>
-      <c r="AN24" s="0"/>
-      <c r="AO24" s="0"/>
-      <c r="AP24" s="0"/>
-      <c r="AQ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -3906,7 +3607,6 @@
       <c r="K25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="0"/>
       <c r="M25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3952,8 +3652,6 @@
       <c r="AD25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE25" s="0"/>
-      <c r="AG25" s="0"/>
       <c r="AH25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3969,13 +3667,9 @@
       <c r="AL25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AN25" s="0"/>
-      <c r="AO25" s="0"/>
-      <c r="AP25" s="0"/>
-      <c r="AQ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="n">
@@ -3990,7 +3684,7 @@
       <c r="E26" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1" t="n">
@@ -4005,8 +3699,7 @@
       <c r="K26" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="L26" s="0"/>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N26" s="1" t="n">
@@ -4021,38 +3714,36 @@
       <c r="Q26" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U26" s="4" t="n">
+      <c r="U26" s="1" t="n">
         <v>3.87943294825416</v>
       </c>
-      <c r="V26" s="4" t="n">
+      <c r="V26" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="W26" s="4" t="n">
+      <c r="W26" s="1" t="n">
         <v>2.79284800875379</v>
       </c>
-      <c r="X26" s="4" t="n">
+      <c r="X26" s="1" t="n">
         <v>8.9977775033616</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="Z26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA26" s="4" t="n">
+      <c r="AA26" s="1" t="n">
         <v>2891.04512071327</v>
       </c>
-      <c r="AB26" s="4" t="n">
+      <c r="AB26" s="1" t="n">
         <v>2883.27814301708</v>
       </c>
-      <c r="AC26" s="4" t="n">
+      <c r="AC26" s="1" t="n">
         <v>2888.95936454634</v>
       </c>
-      <c r="AD26" s="4" t="n">
+      <c r="AD26" s="1" t="n">
         <v>2897.69733409133</v>
       </c>
-      <c r="AE26" s="0"/>
-      <c r="AG26" s="0"/>
       <c r="AH26" s="1" t="s">
         <v>17</v>
       </c>
@@ -4060,7 +3751,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH26,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ26" s="6" t="str">
+      <c r="AJ26" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH26,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -4072,13 +3763,9 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH26,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="0"/>
-      <c r="AP26" s="0"/>
-      <c r="AQ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="n">
@@ -4093,7 +3780,7 @@
       <c r="E27" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="1" t="n">
@@ -4108,8 +3795,7 @@
       <c r="K27" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="L27" s="0"/>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N27" s="1" t="n">
@@ -4124,38 +3810,36 @@
       <c r="Q27" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U27" s="4" t="n">
+      <c r="U27" s="1" t="n">
         <v>3.54400902933387</v>
       </c>
-      <c r="V27" s="4" t="n">
+      <c r="V27" s="1" t="n">
         <v>2.65329983228432</v>
       </c>
-      <c r="W27" s="4" t="n">
+      <c r="W27" s="1" t="n">
         <v>3.78021163428716</v>
       </c>
-      <c r="X27" s="4" t="n">
+      <c r="X27" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="Z27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA27" s="4" t="n">
+      <c r="AA27" s="1" t="n">
         <v>5820.17683236515</v>
       </c>
-      <c r="AB27" s="4" t="n">
+      <c r="AB27" s="1" t="n">
         <v>5791.33706150834</v>
       </c>
-      <c r="AC27" s="4" t="n">
+      <c r="AC27" s="1" t="n">
         <v>5780.85726860645</v>
       </c>
-      <c r="AD27" s="4" t="n">
+      <c r="AD27" s="1" t="n">
         <v>5795.42219773504</v>
       </c>
-      <c r="AE27" s="0"/>
-      <c r="AG27" s="0"/>
       <c r="AH27" s="1" t="s">
         <v>18</v>
       </c>
@@ -4163,7 +3847,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH27,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ27" s="6" t="str">
+      <c r="AJ27" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH27,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -4175,13 +3859,9 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH27,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0"/>
-      <c r="AQ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="1" t="n">
@@ -4196,7 +3876,7 @@
       <c r="E28" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="1" t="n">
@@ -4211,8 +3891,7 @@
       <c r="K28" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="L28" s="0"/>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="1" t="n">
@@ -4227,38 +3906,36 @@
       <c r="Q28" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U28" s="4" t="n">
+      <c r="U28" s="1" t="n">
         <v>1.41774468787578</v>
       </c>
-      <c r="V28" s="4" t="n">
+      <c r="V28" s="1" t="n">
         <v>2.03960780543711</v>
       </c>
-      <c r="W28" s="4" t="n">
+      <c r="W28" s="1" t="n">
         <v>2.28254244210266</v>
       </c>
-      <c r="X28" s="4" t="n">
+      <c r="X28" s="1" t="n">
         <v>2.35796522451032</v>
       </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Z28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA28" s="4" t="n">
+      <c r="AA28" s="1" t="n">
         <v>8671.80232996578</v>
       </c>
-      <c r="AB28" s="4" t="n">
+      <c r="AB28" s="1" t="n">
         <v>8665.75923044253</v>
       </c>
-      <c r="AC28" s="4" t="n">
+      <c r="AC28" s="1" t="n">
         <v>8678.9586293518</v>
       </c>
-      <c r="AD28" s="4" t="n">
+      <c r="AD28" s="1" t="n">
         <v>8684.1219826762</v>
       </c>
-      <c r="AE28" s="0"/>
-      <c r="AG28" s="0"/>
       <c r="AH28" s="1" t="s">
         <v>19</v>
       </c>
@@ -4266,7 +3943,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH28,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ28" s="6" t="str">
+      <c r="AJ28" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH28,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -4278,40 +3955,8 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH28,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="0"/>
-      <c r="AP28" s="0"/>
-      <c r="AQ28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="0"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
-      <c r="AB29" s="0"/>
-      <c r="AC29" s="0"/>
-      <c r="AD29" s="0"/>
-      <c r="AE29" s="0"/>
-      <c r="AG29" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AH29" s="1" t="s">
         <v>20</v>
       </c>
@@ -4319,7 +3964,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH29,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ29" s="6" t="str">
+      <c r="AJ29" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH29,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -4331,40 +3976,8 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH29,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="0"/>
-      <c r="AP29" s="0"/>
-      <c r="AQ29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
-      <c r="AB30" s="0"/>
-      <c r="AC30" s="0"/>
-      <c r="AD30" s="0"/>
-      <c r="AE30" s="0"/>
-      <c r="AG30" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AH30" s="1" t="s">
         <v>21</v>
       </c>
@@ -4372,7 +3985,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH30,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ30" s="6" t="str">
+      <c r="AJ30" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH30,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -4384,40 +3997,8 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH30,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="0"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="0"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
-      <c r="AB31" s="0"/>
-      <c r="AC31" s="0"/>
-      <c r="AD31" s="0"/>
-      <c r="AE31" s="0"/>
-      <c r="AG31" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AH31" s="1" t="s">
         <v>22</v>
       </c>
@@ -4425,7 +4006,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH31,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ31" s="6" t="str">
+      <c r="AJ31" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH31,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -4437,50 +4018,26 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH31,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
       <c r="G32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
       <c r="M32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="T32" s="4" t="s">
+      <c r="T32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U32" s="0"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0"/>
-      <c r="Z32" s="4" t="s">
+      <c r="Z32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA32" s="0"/>
-      <c r="AB32" s="0"/>
-      <c r="AC32" s="0"/>
-      <c r="AD32" s="0"/>
-      <c r="AE32" s="0"/>
-      <c r="AG32" s="0"/>
       <c r="AH32" s="1" t="s">
         <v>23</v>
       </c>
@@ -4488,7 +4045,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH32,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ32" s="6" t="str">
+      <c r="AJ32" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH32,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -4500,10 +4057,6 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH32,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -4536,7 +4089,6 @@
       <c r="K33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="0"/>
       <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4582,8 +4134,6 @@
       <c r="AD33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE33" s="0"/>
-      <c r="AG33" s="0"/>
       <c r="AH33" s="1" t="s">
         <v>24</v>
       </c>
@@ -4591,7 +4141,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH33,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ33" s="6" t="str">
+      <c r="AJ33" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH33,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -4603,10 +4153,6 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH33,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -4639,7 +4185,6 @@
       <c r="K34" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="L34" s="0"/>
       <c r="M34" s="1" t="s">
         <v>17</v>
       </c>
@@ -4658,35 +4203,33 @@
       <c r="T34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U34" s="4" t="n">
+      <c r="U34" s="1" t="n">
         <v>2.44131112314674</v>
       </c>
-      <c r="V34" s="4" t="n">
+      <c r="V34" s="1" t="n">
         <v>1.18743420870379</v>
       </c>
-      <c r="W34" s="4" t="n">
+      <c r="W34" s="1" t="n">
         <v>2.76405499221705</v>
       </c>
-      <c r="X34" s="4" t="n">
+      <c r="X34" s="1" t="n">
         <v>2.3259406699226</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA34" s="4" t="n">
+      <c r="AA34" s="1" t="n">
         <v>218.534756960992</v>
       </c>
-      <c r="AB34" s="4" t="n">
+      <c r="AB34" s="1" t="n">
         <v>218.534756960992</v>
       </c>
-      <c r="AC34" s="4" t="n">
+      <c r="AC34" s="1" t="n">
         <v>218.4</v>
       </c>
-      <c r="AD34" s="4" t="n">
+      <c r="AD34" s="1" t="n">
         <v>218.467480417567</v>
       </c>
-      <c r="AE34" s="0"/>
-      <c r="AG34" s="0"/>
       <c r="AH34" s="1" t="s">
         <v>25</v>
       </c>
@@ -4694,7 +4237,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH34,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ34" s="6" t="str">
+      <c r="AJ34" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH34,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -4706,10 +4249,6 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH34,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -4742,7 +4281,6 @@
       <c r="K35" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="L35" s="0"/>
       <c r="M35" s="1" t="s">
         <v>18</v>
       </c>
@@ -4761,35 +4299,33 @@
       <c r="T35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U35" s="4" t="n">
+      <c r="U35" s="1" t="n">
         <v>2.65329983228432</v>
       </c>
-      <c r="V35" s="4" t="n">
+      <c r="V35" s="1" t="n">
         <v>4.07553677446297</v>
       </c>
-      <c r="W35" s="4" t="n">
+      <c r="W35" s="1" t="n">
         <v>2.45967477524977</v>
       </c>
-      <c r="X35" s="4" t="n">
+      <c r="X35" s="1" t="n">
         <v>2.93257565972304</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA35" s="4" t="n">
+      <c r="AA35" s="1" t="n">
         <v>217.207941843755</v>
       </c>
-      <c r="AB35" s="4" t="n">
+      <c r="AB35" s="1" t="n">
         <v>227.689020376477</v>
       </c>
-      <c r="AC35" s="4" t="n">
+      <c r="AC35" s="1" t="n">
         <v>223.735580540959</v>
       </c>
-      <c r="AD35" s="4" t="n">
+      <c r="AD35" s="1" t="n">
         <v>228.008859476995</v>
       </c>
-      <c r="AE35" s="0"/>
-      <c r="AG35" s="0"/>
       <c r="AH35" s="1" t="s">
         <v>26</v>
       </c>
@@ -4797,7 +4333,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH35,[1]stf_pr_1_acordaos_90!$A$6:$A$21,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ35" s="6" t="str">
+      <c r="AJ35" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH35,[1]stf_pr_1_acordaos_90_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -4809,10 +4345,6 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH35,[1]stf_pr_2_acordaos_90_par!$A$6:$A$30,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
@@ -4845,7 +4377,6 @@
       <c r="K36" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="L36" s="0"/>
       <c r="M36" s="1" t="s">
         <v>19</v>
       </c>
@@ -4864,39 +4395,33 @@
       <c r="T36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U36" s="4" t="n">
+      <c r="U36" s="1" t="n">
         <v>3.28785644455472</v>
       </c>
-      <c r="V36" s="4" t="n">
+      <c r="V36" s="1" t="n">
         <v>2.2113344387496</v>
       </c>
-      <c r="W36" s="4" t="n">
+      <c r="W36" s="1" t="n">
         <v>2.41039415863879</v>
       </c>
-      <c r="X36" s="4" t="n">
+      <c r="X36" s="1" t="n">
         <v>2.7</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA36" s="4" t="n">
+      <c r="AA36" s="1" t="n">
         <v>216.453805695349</v>
       </c>
-      <c r="AB36" s="4" t="n">
+      <c r="AB36" s="1" t="n">
         <v>226.051233130899</v>
       </c>
-      <c r="AC36" s="4" t="n">
+      <c r="AC36" s="1" t="n">
         <v>222.251299208801</v>
       </c>
-      <c r="AD36" s="4" t="n">
+      <c r="AD36" s="1" t="n">
         <v>214.251931146489</v>
       </c>
-      <c r="AE36" s="0"/>
-      <c r="AH36" s="0"/>
-      <c r="AI36" s="0"/>
-      <c r="AJ36" s="0"/>
-      <c r="AK36" s="0"/>
-      <c r="AL36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
@@ -4929,7 +4454,6 @@
       <c r="K37" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L37" s="0"/>
       <c r="M37" s="1" t="s">
         <v>20</v>
       </c>
@@ -4948,39 +4472,33 @@
       <c r="T37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U37" s="4" t="n">
+      <c r="U37" s="1" t="n">
         <v>13.2759180473518</v>
       </c>
-      <c r="V37" s="4" t="n">
+      <c r="V37" s="1" t="n">
         <v>15.1158856836111</v>
       </c>
-      <c r="W37" s="4" t="n">
+      <c r="W37" s="1" t="n">
         <v>15.1049660707994</v>
       </c>
-      <c r="X37" s="4" t="n">
+      <c r="X37" s="1" t="n">
         <v>13.7873130087048</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA37" s="4" t="n">
+      <c r="AA37" s="1" t="n">
         <v>164.133604115672</v>
       </c>
-      <c r="AB37" s="4" t="n">
+      <c r="AB37" s="1" t="n">
         <v>164.1</v>
       </c>
-      <c r="AC37" s="4" t="n">
+      <c r="AC37" s="1" t="n">
         <v>164.133604115672</v>
       </c>
-      <c r="AD37" s="4" t="n">
+      <c r="AD37" s="1" t="n">
         <v>164.133604115672</v>
       </c>
-      <c r="AE37" s="0"/>
-      <c r="AH37" s="0"/>
-      <c r="AI37" s="0"/>
-      <c r="AJ37" s="0"/>
-      <c r="AK37" s="0"/>
-      <c r="AL37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -5013,7 +4531,6 @@
       <c r="K38" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="L38" s="0"/>
       <c r="M38" s="1" t="s">
         <v>21</v>
       </c>
@@ -5032,34 +4549,33 @@
       <c r="T38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U38" s="4" t="n">
+      <c r="U38" s="1" t="n">
         <v>2.96647939483826</v>
       </c>
-      <c r="V38" s="4" t="n">
+      <c r="V38" s="1" t="n">
         <v>2.41039415863879</v>
       </c>
-      <c r="W38" s="4" t="n">
+      <c r="W38" s="1" t="n">
         <v>3.97994974842648</v>
       </c>
-      <c r="X38" s="4" t="n">
+      <c r="X38" s="1" t="n">
         <v>3.61801050302511</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA38" s="4" t="n">
+      <c r="AA38" s="1" t="n">
         <v>148.833631951921</v>
       </c>
-      <c r="AB38" s="4" t="n">
+      <c r="AB38" s="1" t="n">
         <v>148.833631951921</v>
       </c>
-      <c r="AC38" s="4" t="n">
+      <c r="AC38" s="1" t="n">
         <v>148.833631951921</v>
       </c>
-      <c r="AD38" s="4" t="n">
+      <c r="AD38" s="1" t="n">
         <v>148.8</v>
       </c>
-      <c r="AE38" s="0"/>
       <c r="AH38" s="1" t="s">
         <v>33</v>
       </c>
@@ -5107,7 +4623,6 @@
       <c r="K39" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="L39" s="0"/>
       <c r="M39" s="1" t="s">
         <v>22</v>
       </c>
@@ -5126,34 +4641,33 @@
       <c r="T39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U39" s="4" t="n">
+      <c r="U39" s="1" t="n">
         <v>4.63033476111609</v>
       </c>
-      <c r="V39" s="4" t="n">
+      <c r="V39" s="1" t="n">
         <v>2.76586333718787</v>
       </c>
-      <c r="W39" s="4" t="n">
+      <c r="W39" s="1" t="n">
         <v>2.96647939483826</v>
       </c>
-      <c r="X39" s="4" t="n">
+      <c r="X39" s="1" t="n">
         <v>2.5219040425837</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA39" s="4" t="n">
+      <c r="AA39" s="1" t="n">
         <v>189.245449086629</v>
       </c>
-      <c r="AB39" s="4" t="n">
+      <c r="AB39" s="1" t="n">
         <v>185.129711283738</v>
       </c>
-      <c r="AC39" s="4" t="n">
+      <c r="AC39" s="1" t="n">
         <v>191.471251105747</v>
       </c>
-      <c r="AD39" s="4" t="n">
+      <c r="AD39" s="1" t="n">
         <v>189.9772617973</v>
       </c>
-      <c r="AE39" s="0"/>
       <c r="AH39" s="1" t="s">
         <v>17</v>
       </c>
@@ -5161,7 +4675,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH39,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ39" s="6" t="str">
+      <c r="AJ39" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH39,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -5205,7 +4719,6 @@
       <c r="K40" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="L40" s="0"/>
       <c r="M40" s="1" t="s">
         <v>23</v>
       </c>
@@ -5224,34 +4737,33 @@
       <c r="T40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U40" s="4" t="n">
+      <c r="U40" s="1" t="n">
         <v>1.88679622641132</v>
       </c>
-      <c r="V40" s="4" t="n">
+      <c r="V40" s="1" t="n">
         <v>3.35261092284804</v>
       </c>
-      <c r="W40" s="4" t="n">
+      <c r="W40" s="1" t="n">
         <v>1.83303027798234</v>
       </c>
-      <c r="X40" s="4" t="n">
+      <c r="X40" s="1" t="n">
         <v>2.28910462845192</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA40" s="4" t="n">
+      <c r="AA40" s="1" t="n">
         <v>110.1</v>
       </c>
-      <c r="AB40" s="4" t="n">
+      <c r="AB40" s="1" t="n">
         <v>110.1</v>
       </c>
-      <c r="AC40" s="4" t="n">
+      <c r="AC40" s="1" t="n">
         <v>110.1</v>
       </c>
-      <c r="AD40" s="4" t="n">
+      <c r="AD40" s="1" t="n">
         <v>110.1</v>
       </c>
-      <c r="AE40" s="0"/>
       <c r="AH40" s="1" t="s">
         <v>18</v>
       </c>
@@ -5259,7 +4771,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH40,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ40" s="6" t="str">
+      <c r="AJ40" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH40,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -5303,7 +4815,6 @@
       <c r="K41" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="L41" s="0"/>
       <c r="M41" s="1" t="s">
         <v>24</v>
       </c>
@@ -5322,34 +4833,33 @@
       <c r="T41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="4" t="n">
+      <c r="U41" s="1" t="n">
         <v>2.5298221281347</v>
       </c>
-      <c r="V41" s="4" t="n">
+      <c r="V41" s="1" t="n">
         <v>2.28910462845192</v>
       </c>
-      <c r="W41" s="4" t="n">
+      <c r="W41" s="1" t="n">
         <v>2.2113344387496</v>
       </c>
-      <c r="X41" s="4" t="n">
+      <c r="X41" s="1" t="n">
         <v>1.92093727122985</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA41" s="4" t="n">
+      <c r="AA41" s="1" t="n">
         <v>100.8</v>
       </c>
-      <c r="AB41" s="4" t="n">
+      <c r="AB41" s="1" t="n">
         <v>100.8</v>
       </c>
-      <c r="AC41" s="4" t="n">
+      <c r="AC41" s="1" t="n">
         <v>100.8</v>
       </c>
-      <c r="AD41" s="4" t="n">
+      <c r="AD41" s="1" t="n">
         <v>100.8</v>
       </c>
-      <c r="AE41" s="0"/>
       <c r="AH41" s="1" t="s">
         <v>19</v>
       </c>
@@ -5357,7 +4867,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH41,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ41" s="6" t="str">
+      <c r="AJ41" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH41,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -5401,7 +4911,6 @@
       <c r="K42" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="L42" s="0"/>
       <c r="M42" s="1" t="s">
         <v>25</v>
       </c>
@@ -5420,34 +4929,33 @@
       <c r="T42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U42" s="4" t="n">
+      <c r="U42" s="1" t="n">
         <v>3.26955654485436</v>
       </c>
-      <c r="V42" s="4" t="n">
+      <c r="V42" s="1" t="n">
         <v>2.53179778023443</v>
       </c>
-      <c r="W42" s="4" t="n">
+      <c r="W42" s="1" t="n">
         <v>1.18321595661992</v>
       </c>
-      <c r="X42" s="4" t="n">
+      <c r="X42" s="1" t="n">
         <v>4.79165942028438</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA42" s="4" t="n">
+      <c r="AA42" s="1" t="n">
         <v>106.848537659624</v>
       </c>
-      <c r="AB42" s="4" t="n">
+      <c r="AB42" s="1" t="n">
         <v>106.698875345526</v>
       </c>
-      <c r="AC42" s="4" t="n">
+      <c r="AC42" s="1" t="n">
         <v>109.055215372764</v>
       </c>
-      <c r="AD42" s="4" t="n">
+      <c r="AD42" s="1" t="n">
         <v>103.720586191942</v>
       </c>
-      <c r="AE42" s="0"/>
       <c r="AH42" s="1" t="s">
         <v>20</v>
       </c>
@@ -5455,7 +4963,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH42,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ42" s="6" t="str">
+      <c r="AJ42" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH42,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -5499,7 +5007,6 @@
       <c r="K43" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="L43" s="0"/>
       <c r="M43" s="1" t="s">
         <v>26</v>
       </c>
@@ -5518,34 +5025,33 @@
       <c r="T43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U43" s="4" t="n">
+      <c r="U43" s="1" t="n">
         <v>2.63818119165458</v>
       </c>
-      <c r="V43" s="4" t="n">
+      <c r="V43" s="1" t="n">
         <v>3.1559467676119</v>
       </c>
-      <c r="W43" s="4" t="n">
+      <c r="W43" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="X43" s="4" t="n">
+      <c r="X43" s="1" t="n">
         <v>3.63868107973205</v>
       </c>
       <c r="Z43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA43" s="4" t="n">
+      <c r="AA43" s="1" t="n">
         <v>122.667395831166</v>
       </c>
-      <c r="AB43" s="4" t="n">
+      <c r="AB43" s="1" t="n">
         <v>128.068770588305</v>
       </c>
-      <c r="AC43" s="4" t="n">
+      <c r="AC43" s="1" t="n">
         <v>121.579644677882</v>
       </c>
-      <c r="AD43" s="4" t="n">
+      <c r="AD43" s="1" t="n">
         <v>127.467642953026</v>
       </c>
-      <c r="AE43" s="0"/>
       <c r="AH43" s="1" t="s">
         <v>21</v>
       </c>
@@ -5553,7 +5059,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH43,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ43" s="6" t="str">
+      <c r="AJ43" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH43,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -5605,7 +5111,6 @@
         <f aca="false">AVERAGE( K34:K43)</f>
         <v>74.3</v>
       </c>
-      <c r="L44" s="0"/>
       <c r="M44" s="1" t="s">
         <v>15</v>
       </c>
@@ -5625,15 +5130,6 @@
         <f aca="false">AVERAGE( Q34:Q43)</f>
         <v>122.9</v>
       </c>
-      <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
-      <c r="AB44" s="0"/>
-      <c r="AC44" s="0"/>
-      <c r="AD44" s="0"/>
-      <c r="AE44" s="0"/>
       <c r="AH44" s="1" t="s">
         <v>22</v>
       </c>
@@ -5641,7 +5137,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH44,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ44" s="6" t="str">
+      <c r="AJ44" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH44,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -5654,32 +5150,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="0"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
-      <c r="AB45" s="0"/>
-      <c r="AC45" s="0"/>
-      <c r="AD45" s="0"/>
-      <c r="AE45" s="0"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AH45" s="1" t="s">
         <v>23</v>
       </c>
@@ -5687,7 +5158,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH45,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ45" s="6" t="str">
+      <c r="AJ45" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH45,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -5701,31 +5172,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
-      <c r="V46" s="0"/>
-      <c r="W46" s="0"/>
-      <c r="X46" s="0"/>
-      <c r="Z46" s="0"/>
-      <c r="AA46" s="0"/>
-      <c r="AB46" s="0"/>
-      <c r="AC46" s="0"/>
-      <c r="AD46" s="0"/>
-      <c r="AE46" s="0"/>
       <c r="AH46" s="1" t="s">
         <v>24</v>
       </c>
@@ -5733,7 +5181,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH46,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ46" s="6" t="str">
+      <c r="AJ46" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH46,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -5746,33 +5194,10 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="M47" s="0"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0"/>
-      <c r="Z47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="0"/>
-      <c r="AB47" s="0"/>
-      <c r="AC47" s="0"/>
-      <c r="AD47" s="0"/>
-      <c r="AE47" s="0"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Z47" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="AH47" s="1" t="s">
         <v>25</v>
       </c>
@@ -5780,7 +5205,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH47,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ47" s="6" t="str">
+      <c r="AJ47" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH47,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -5795,29 +5220,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="0"/>
-      <c r="C48" s="0"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
+        <v>35</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="0"/>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
-      <c r="K48" s="0"/>
+        <v>36</v>
+      </c>
       <c r="M48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N48" s="0"/>
-      <c r="O48" s="0"/>
-      <c r="P48" s="0"/>
-      <c r="Q48" s="0"/>
-      <c r="V48" s="0"/>
-      <c r="W48" s="0"/>
-      <c r="X48" s="0"/>
+        <v>37</v>
+      </c>
       <c r="Z48" s="1" t="s">
         <v>5</v>
       </c>
@@ -5843,7 +5253,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH48,[1]stf_pr_1_acordaos_80!$A$6:$A$22,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ48" s="6" t="str">
+      <c r="AJ48" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH48,[1]stf_pr_1_acordaos_80_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -5884,7 +5294,6 @@
       <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="0"/>
       <c r="M49" s="1" t="s">
         <v>5</v>
       </c>
@@ -5897,34 +5306,24 @@
       <c r="P49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="0"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0"/>
-      <c r="Z49" s="5" t="s">
+      <c r="Z49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA49" s="4" t="n">
+      <c r="AA49" s="1" t="n">
         <v>86838.5555555556</v>
       </c>
-      <c r="AB49" s="4" t="n">
+      <c r="AB49" s="1" t="n">
         <v>86853.6666666667</v>
       </c>
-      <c r="AC49" s="4" t="n">
+      <c r="AC49" s="1" t="n">
         <v>86855.6666666667</v>
       </c>
-      <c r="AD49" s="4" t="n">
+      <c r="AD49" s="1" t="n">
         <v>86805.7777777778</v>
       </c>
-      <c r="AE49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1" t="n">
@@ -5939,7 +5338,7 @@
       <c r="E50" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="1" t="n">
@@ -5954,7 +5353,7 @@
       <c r="K50" s="1" t="n">
         <v>5.9</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N50" s="1" t="n">
@@ -5969,33 +5368,24 @@
       <c r="Q50" s="1" t="n">
         <v>0.830662386291807</v>
       </c>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0"/>
-      <c r="Z50" s="5" t="s">
+      <c r="Z50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA50" s="4" t="n">
+      <c r="AA50" s="1" t="n">
         <v>77074.4444444444</v>
       </c>
-      <c r="AB50" s="4" t="n">
+      <c r="AB50" s="1" t="n">
         <v>77160</v>
       </c>
-      <c r="AC50" s="4" t="n">
+      <c r="AC50" s="1" t="n">
         <v>77199.5555555556</v>
       </c>
-      <c r="AD50" s="4" t="n">
+      <c r="AD50" s="1" t="n">
         <v>77157</v>
       </c>
-      <c r="AE50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="1" t="n">
@@ -6010,7 +5400,7 @@
       <c r="E51" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="1" t="n">
@@ -6025,7 +5415,7 @@
       <c r="K51" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N51" s="1" t="n">
@@ -6040,27 +5430,23 @@
       <c r="Q51" s="1" t="n">
         <v>0.979795897113271</v>
       </c>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
-      <c r="Z51" s="5" t="s">
+      <c r="Z51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA51" s="4" t="n">
+      <c r="AA51" s="1" t="n">
         <v>67550.3333333333</v>
       </c>
-      <c r="AB51" s="4" t="n">
+      <c r="AB51" s="1" t="n">
         <v>67573.5555555556</v>
       </c>
-      <c r="AC51" s="4" t="n">
+      <c r="AC51" s="1" t="n">
         <v>67560.7777777778</v>
       </c>
-      <c r="AD51" s="4" t="n">
+      <c r="AD51" s="1" t="n">
         <v>67511.2222222222</v>
       </c>
-      <c r="AE51" s="0"/>
       <c r="AH51" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>6</v>
@@ -6076,7 +5462,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="1" t="n">
@@ -6091,7 +5477,7 @@
       <c r="E52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="1" t="n">
@@ -6106,7 +5492,7 @@
       <c r="K52" s="1" t="n">
         <v>5.8</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N52" s="1" t="n">
@@ -6121,15 +5507,6 @@
       <c r="Q52" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
       <c r="AH52" s="1" t="s">
         <v>17</v>
       </c>
@@ -6137,7 +5514,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH52,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ52" s="6" t="str">
+      <c r="AJ52" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH52,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -6150,31 +5527,11 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="M53" s="0"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="V53" s="0"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W53" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X53" s="2"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
-      <c r="AB53" s="0"/>
-      <c r="AC53" s="0"/>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0"/>
       <c r="AH53" s="1" t="s">
         <v>18</v>
       </c>
@@ -6182,7 +5539,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH53,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ53" s="6" t="str">
+      <c r="AJ53" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH53,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -6195,37 +5552,19 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="V54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="0"/>
-      <c r="AB54" s="0"/>
-      <c r="AC54" s="0"/>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
+        <v>42</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="AH54" s="1" t="s">
         <v>19</v>
       </c>
@@ -6233,7 +5572,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH54,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ54" s="6" t="str">
+      <c r="AJ54" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH54,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -6247,23 +5586,12 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
       <c r="G55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
+        <v>36</v>
+      </c>
       <c r="M55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
+        <v>37</v>
+      </c>
       <c r="V55" s="1" t="s">
         <v>17</v>
       </c>
@@ -6298,7 +5626,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH55,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ55" s="6" t="str">
+      <c r="AJ55" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH55,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -6313,12 +5641,11 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="0"/>
+        <v>43</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>16</v>
       </c>
@@ -6361,16 +5688,16 @@
       <c r="Z56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA56" s="4" t="n">
+      <c r="AA56" s="1" t="n">
         <v>6559.55555555556</v>
       </c>
-      <c r="AB56" s="4" t="n">
+      <c r="AB56" s="1" t="n">
         <v>6559.55555555556</v>
       </c>
-      <c r="AC56" s="4" t="n">
+      <c r="AC56" s="1" t="n">
         <v>6560</v>
       </c>
-      <c r="AD56" s="4" t="n">
+      <c r="AD56" s="1" t="n">
         <v>6559.77777777778</v>
       </c>
       <c r="AH56" s="1" t="s">
@@ -6380,7 +5707,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH56,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ56" s="6" t="str">
+      <c r="AJ56" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH56,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -6400,7 +5727,6 @@
       <c r="B57" s="1" t="n">
         <v>7273</v>
       </c>
-      <c r="C57" s="0"/>
       <c r="G57" s="1" t="s">
         <v>17</v>
       </c>
@@ -6443,16 +5769,16 @@
       <c r="Z57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA57" s="4" t="n">
+      <c r="AA57" s="1" t="n">
         <v>6693.44444444444</v>
       </c>
-      <c r="AB57" s="4" t="n">
+      <c r="AB57" s="1" t="n">
         <v>6662.33333333333</v>
       </c>
-      <c r="AC57" s="4" t="n">
+      <c r="AC57" s="1" t="n">
         <v>6675.22222222222</v>
       </c>
-      <c r="AD57" s="4" t="n">
+      <c r="AD57" s="1" t="n">
         <v>6664.88888888889</v>
       </c>
       <c r="AH57" s="1" t="s">
@@ -6462,7 +5788,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH57,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ57" s="6" t="str">
+      <c r="AJ57" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH57,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -6482,7 +5808,6 @@
       <c r="B58" s="1" t="n">
         <v>6429</v>
       </c>
-      <c r="C58" s="0"/>
       <c r="G58" s="1" t="s">
         <v>18</v>
       </c>
@@ -6525,16 +5850,16 @@
       <c r="Z58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA58" s="4" t="n">
+      <c r="AA58" s="1" t="n">
         <v>6368.33333333333</v>
       </c>
-      <c r="AB58" s="4" t="n">
+      <c r="AB58" s="1" t="n">
         <v>6333.11111111111</v>
       </c>
-      <c r="AC58" s="4" t="n">
+      <c r="AC58" s="1" t="n">
         <v>6363.77777777778</v>
       </c>
-      <c r="AD58" s="4" t="n">
+      <c r="AD58" s="1" t="n">
         <v>6387.66666666667</v>
       </c>
       <c r="AH58" s="1" t="s">
@@ -6544,7 +5869,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH58,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ58" s="6" t="str">
+      <c r="AJ58" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH58,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -6564,7 +5889,6 @@
       <c r="B59" s="1" t="n">
         <v>5975</v>
       </c>
-      <c r="C59" s="0"/>
       <c r="G59" s="1" t="s">
         <v>19</v>
       </c>
@@ -6607,16 +5931,16 @@
       <c r="Z59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA59" s="4" t="n">
+      <c r="AA59" s="1" t="n">
         <v>4914.88888888889</v>
       </c>
-      <c r="AB59" s="4" t="n">
+      <c r="AB59" s="1" t="n">
         <v>4915</v>
       </c>
-      <c r="AC59" s="4" t="n">
+      <c r="AC59" s="1" t="n">
         <v>4914.88888888889</v>
       </c>
-      <c r="AD59" s="4" t="n">
+      <c r="AD59" s="1" t="n">
         <v>4914.88888888889</v>
       </c>
       <c r="AH59" s="1" t="s">
@@ -6626,7 +5950,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH59,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>No</v>
       </c>
-      <c r="AJ59" s="6" t="str">
+      <c r="AJ59" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH59,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -6646,7 +5970,6 @@
       <c r="B60" s="1" t="n">
         <v>5461</v>
       </c>
-      <c r="C60" s="0"/>
       <c r="G60" s="1" t="s">
         <v>20</v>
       </c>
@@ -6689,16 +6012,16 @@
       <c r="Z60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA60" s="4" t="n">
+      <c r="AA60" s="1" t="n">
         <v>4462.88888888889</v>
       </c>
-      <c r="AB60" s="4" t="n">
+      <c r="AB60" s="1" t="n">
         <v>4462.88888888889</v>
       </c>
-      <c r="AC60" s="4" t="n">
+      <c r="AC60" s="1" t="n">
         <v>4462.88888888889</v>
       </c>
-      <c r="AD60" s="4" t="n">
+      <c r="AD60" s="1" t="n">
         <v>4463</v>
       </c>
       <c r="AH60" s="1" t="s">
@@ -6708,7 +6031,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH60,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ60" s="6" t="str">
+      <c r="AJ60" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH60,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>Yes</v>
       </c>
@@ -6728,7 +6051,6 @@
       <c r="B61" s="1" t="n">
         <v>4959</v>
       </c>
-      <c r="C61" s="0"/>
       <c r="G61" s="1" t="s">
         <v>21</v>
       </c>
@@ -6771,16 +6093,16 @@
       <c r="Z61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA61" s="4" t="n">
+      <c r="AA61" s="1" t="n">
         <v>5612.77777777778</v>
       </c>
-      <c r="AB61" s="4" t="n">
+      <c r="AB61" s="1" t="n">
         <v>5609.11111111111</v>
       </c>
-      <c r="AC61" s="4" t="n">
+      <c r="AC61" s="1" t="n">
         <v>5600.33333333333</v>
       </c>
-      <c r="AD61" s="4" t="n">
+      <c r="AD61" s="1" t="n">
         <v>5599</v>
       </c>
       <c r="AH61" s="1" t="s">
@@ -6790,7 +6112,7 @@
         <f aca="false">IF(ISNA(VLOOKUP(AH61,[1]stf_pr_1_acordaos_70!$A$6:$A$23,1,0)),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="AJ61" s="6" t="str">
+      <c r="AJ61" s="5" t="str">
         <f aca="false">IF(ISNA(VLOOKUP(AH61,[1]stf_pr_1_acordaos_70_replaced_col!$A$6:$A$21,1,0)), "No", "Yes")</f>
         <v>No</v>
       </c>
@@ -6810,7 +6132,6 @@
       <c r="B62" s="1" t="n">
         <v>4752</v>
       </c>
-      <c r="C62" s="0"/>
       <c r="G62" s="1" t="s">
         <v>22</v>
       </c>
@@ -6853,16 +6174,16 @@
       <c r="Z62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA62" s="4" t="n">
+      <c r="AA62" s="1" t="n">
         <v>3297</v>
       </c>
-      <c r="AB62" s="4" t="n">
+      <c r="AB62" s="1" t="n">
         <v>3297</v>
       </c>
-      <c r="AC62" s="4" t="n">
+      <c r="AC62" s="1" t="n">
         <v>3297</v>
       </c>
-      <c r="AD62" s="4" t="n">
+      <c r="AD62" s="1" t="n">
         <v>3297</v>
       </c>
     </row>
@@ -6873,7 +6194,6 @@
       <c r="B63" s="1" t="n">
         <v>3664</v>
       </c>
-      <c r="C63" s="0"/>
       <c r="G63" s="1" t="s">
         <v>23</v>
       </c>
@@ -6916,16 +6236,16 @@
       <c r="Z63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA63" s="4" t="n">
+      <c r="AA63" s="1" t="n">
         <v>3015</v>
       </c>
-      <c r="AB63" s="4" t="n">
+      <c r="AB63" s="1" t="n">
         <v>3015</v>
       </c>
-      <c r="AC63" s="4" t="n">
+      <c r="AC63" s="1" t="n">
         <v>3015</v>
       </c>
-      <c r="AD63" s="4" t="n">
+      <c r="AD63" s="1" t="n">
         <v>3015</v>
       </c>
     </row>
@@ -6936,7 +6256,6 @@
       <c r="B64" s="1" t="n">
         <v>3351</v>
       </c>
-      <c r="C64" s="0"/>
       <c r="G64" s="1" t="s">
         <v>24</v>
       </c>
@@ -6979,16 +6298,16 @@
       <c r="Z64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA64" s="4" t="n">
+      <c r="AA64" s="1" t="n">
         <v>3188.44444444444</v>
       </c>
-      <c r="AB64" s="4" t="n">
+      <c r="AB64" s="1" t="n">
         <v>3187.11111111111</v>
       </c>
-      <c r="AC64" s="4" t="n">
+      <c r="AC64" s="1" t="n">
         <v>3180.55555555556</v>
       </c>
-      <c r="AD64" s="4" t="n">
+      <c r="AD64" s="1" t="n">
         <v>3196.77777777778</v>
       </c>
     </row>
@@ -6999,7 +6318,6 @@
       <c r="B65" s="1" t="n">
         <v>3338</v>
       </c>
-      <c r="C65" s="0"/>
       <c r="G65" s="1" t="s">
         <v>25</v>
       </c>
@@ -7033,20 +6351,20 @@
       <c r="Z65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA65" s="4" t="n">
+      <c r="AA65" s="1" t="n">
         <v>3623.44444444444</v>
       </c>
-      <c r="AB65" s="4" t="n">
+      <c r="AB65" s="1" t="n">
         <v>3602.55555555556</v>
       </c>
-      <c r="AC65" s="4" t="n">
+      <c r="AC65" s="1" t="n">
         <v>3617.44444444444</v>
       </c>
-      <c r="AD65" s="4" t="n">
+      <c r="AD65" s="1" t="n">
         <v>3597.77777777778</v>
       </c>
-      <c r="AH65" s="0" t="s">
-        <v>43</v>
+      <c r="AH65" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7056,7 +6374,6 @@
       <c r="B66" s="1" t="n">
         <v>3332</v>
       </c>
-      <c r="C66" s="0"/>
       <c r="G66" s="1" t="s">
         <v>26</v>
       </c>
@@ -7087,11 +6404,6 @@
       <c r="Q66" s="1" t="n">
         <v>2.28254244210267</v>
       </c>
-      <c r="Z66" s="0"/>
-      <c r="AA66" s="0"/>
-      <c r="AB66" s="0"/>
-      <c r="AC66" s="0"/>
-      <c r="AD66" s="0"/>
       <c r="AH66" s="1" t="s">
         <v>5</v>
       </c>
@@ -7102,80 +6414,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="Z67" s="0"/>
-      <c r="AA67" s="0"/>
-      <c r="AB67" s="0"/>
-      <c r="AC67" s="0"/>
-      <c r="AD67" s="0"/>
-      <c r="AH67" s="5" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AH67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AI67" s="0" t="n">
+      <c r="AI67" s="1" t="n">
         <v>111.1666</v>
       </c>
-      <c r="AJ67" s="7" t="n">
+      <c r="AJ67" s="1" t="n">
         <v>11.66638</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
-      <c r="B68" s="0"/>
-      <c r="C68" s="0"/>
-      <c r="G68" s="0"/>
-      <c r="Z68" s="0"/>
-      <c r="AA68" s="0"/>
-      <c r="AB68" s="0"/>
-      <c r="AC68" s="0"/>
-      <c r="AD68" s="0"/>
-      <c r="AH68" s="5" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AH68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AI68" s="0" t="n">
+      <c r="AI68" s="1" t="n">
         <v>120.3719</v>
       </c>
-      <c r="AJ68" s="7" t="n">
+      <c r="AJ68" s="1" t="n">
         <v>1.5994</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
       <c r="G69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA69" s="0"/>
-      <c r="AB69" s="0"/>
-      <c r="AC69" s="0"/>
-      <c r="AD69" s="0"/>
-      <c r="AH69" s="5" t="s">
+      <c r="AH69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AI69" s="0" t="n">
+      <c r="AI69" s="1" t="n">
         <v>199.3241</v>
       </c>
-      <c r="AJ69" s="7" t="n">
+      <c r="AJ69" s="1" t="n">
         <v>1.4311</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="0"/>
+        <v>47</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>5</v>
@@ -7195,87 +6481,85 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AA71" s="4" t="n">
+      <c r="AA71" s="1" t="n">
         <v>212.115330846799</v>
       </c>
-      <c r="AB71" s="4" t="n">
+      <c r="AB71" s="1" t="n">
         <v>155.537062392787</v>
       </c>
-      <c r="AC71" s="4" t="n">
+      <c r="AC71" s="1" t="n">
         <v>253.905056621127</v>
       </c>
-      <c r="AD71" s="4" t="n">
+      <c r="AD71" s="1" t="n">
         <v>157.005150501347</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="0"/>
-      <c r="Z72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA72" s="4" t="n">
+      <c r="AA72" s="1" t="n">
         <v>298.866417990495</v>
       </c>
-      <c r="AB72" s="4" t="n">
+      <c r="AB72" s="1" t="n">
         <v>219.26949425561</v>
       </c>
-      <c r="AC72" s="4" t="n">
+      <c r="AC72" s="1" t="n">
         <v>256.504758938357</v>
       </c>
-      <c r="AD72" s="4" t="n">
+      <c r="AD72" s="1" t="n">
         <v>298.489158559868</v>
       </c>
-      <c r="AH72" s="0" t="s">
-        <v>43</v>
+      <c r="AH72" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="0"/>
       <c r="G73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA73" s="4" t="n">
+      <c r="AA73" s="1" t="n">
         <v>158.413663832666</v>
       </c>
-      <c r="AB73" s="4" t="n">
+      <c r="AB73" s="1" t="n">
         <v>207.024481167009</v>
       </c>
-      <c r="AC73" s="4" t="n">
+      <c r="AC73" s="1" t="n">
         <v>472.67319642358</v>
       </c>
-      <c r="AD73" s="4" t="n">
+      <c r="AD73" s="1" t="n">
         <v>190.901241354312</v>
       </c>
       <c r="AH73" s="1" t="s">
@@ -7290,18 +6574,11 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="0"/>
-      <c r="G74" s="0"/>
-      <c r="Z74" s="0"/>
-      <c r="AA74" s="0"/>
-      <c r="AB74" s="0"/>
-      <c r="AC74" s="0"/>
-      <c r="AD74" s="0"/>
       <c r="AH74" s="1" t="s">
         <v>17</v>
       </c>
@@ -7314,20 +6591,14 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="0"/>
-      <c r="G75" s="0"/>
-      <c r="Z75" s="4" t="s">
+      <c r="Z75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA75" s="0"/>
-      <c r="AB75" s="0"/>
-      <c r="AC75" s="0"/>
-      <c r="AD75" s="0"/>
       <c r="AH75" s="1" t="s">
         <v>18</v>
       </c>
@@ -7340,14 +6611,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="0"/>
       <c r="G76" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>5</v>
@@ -7376,26 +6646,24 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="0"/>
-      <c r="G77" s="0"/>
       <c r="Z77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA77" s="4" t="n">
+      <c r="AA77" s="1" t="n">
         <v>0.831479419283098</v>
       </c>
-      <c r="AB77" s="4" t="n">
+      <c r="AB77" s="1" t="n">
         <v>0.831479419283098</v>
       </c>
-      <c r="AC77" s="4" t="n">
+      <c r="AC77" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AD77" s="4" t="n">
+      <c r="AD77" s="1" t="n">
         <v>0.628539361054709</v>
       </c>
       <c r="AH77" s="1" t="s">
@@ -7410,26 +6678,24 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="0"/>
-      <c r="G78" s="0"/>
       <c r="Z78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA78" s="4" t="n">
+      <c r="AA78" s="1" t="n">
         <v>32.8062023644958</v>
       </c>
-      <c r="AB78" s="4" t="n">
+      <c r="AB78" s="1" t="n">
         <v>41.2553026894725</v>
       </c>
-      <c r="AC78" s="4" t="n">
+      <c r="AC78" s="1" t="n">
         <v>40.3698946625047</v>
       </c>
-      <c r="AD78" s="4" t="n">
+      <c r="AD78" s="1" t="n">
         <v>47.3859905327032</v>
       </c>
       <c r="AH78" s="1" t="s">
@@ -7444,28 +6710,27 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="0"/>
       <c r="G79" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA79" s="4" t="n">
+      <c r="AA79" s="1" t="n">
         <v>37.5647588986155</v>
       </c>
-      <c r="AB79" s="4" t="n">
+      <c r="AB79" s="1" t="n">
         <v>31.5046537812518</v>
       </c>
-      <c r="AC79" s="4" t="n">
+      <c r="AC79" s="1" t="n">
         <v>59.8883735290133</v>
       </c>
-      <c r="AD79" s="4" t="n">
+      <c r="AD79" s="1" t="n">
         <v>55.4236211175143</v>
       </c>
       <c r="AH79" s="1" t="s">
@@ -7474,34 +6739,33 @@
       <c r="AI79" s="1" t="n">
         <v>0.0047</v>
       </c>
-      <c r="AJ79" s="0" t="n">
+      <c r="AJ79" s="1" t="n">
         <v>0.0047</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="0"/>
       <c r="G80" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA80" s="4" t="n">
+      <c r="AA80" s="1" t="n">
         <v>0.314269680527354</v>
       </c>
-      <c r="AB80" s="4" t="n">
+      <c r="AB80" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AC80" s="4" t="n">
+      <c r="AC80" s="1" t="n">
         <v>0.314269680527354</v>
       </c>
-      <c r="AD80" s="4" t="n">
+      <c r="AD80" s="1" t="n">
         <v>0.314269680527354</v>
       </c>
       <c r="AH80" s="1" t="s">
@@ -7514,23 +6778,20 @@
         <v>0.0028</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Z81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA81" s="4" t="n">
+      <c r="AA81" s="1" t="n">
         <v>0.314269680527354</v>
       </c>
-      <c r="AB81" s="4" t="n">
+      <c r="AB81" s="1" t="n">
         <v>0.314269680527354</v>
       </c>
-      <c r="AC81" s="4" t="n">
+      <c r="AC81" s="1" t="n">
         <v>0.314269680527354</v>
       </c>
-      <c r="AD81" s="4" t="n">
+      <c r="AD81" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH81" s="1" t="s">
@@ -7545,23 +6806,21 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
+        <v>61</v>
+      </c>
       <c r="Z82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA82" s="4" t="n">
+      <c r="AA82" s="1" t="n">
         <v>52.9124597336178</v>
       </c>
-      <c r="AB82" s="4" t="n">
+      <c r="AB82" s="1" t="n">
         <v>25.3045645616422</v>
       </c>
-      <c r="AC82" s="4" t="n">
+      <c r="AC82" s="1" t="n">
         <v>47.0319040652194</v>
       </c>
-      <c r="AD82" s="4" t="n">
+      <c r="AD82" s="1" t="n">
         <v>37.5913701680467</v>
       </c>
       <c r="AH82" s="1" t="s">
@@ -7576,23 +6835,21 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
+        <v>62</v>
+      </c>
       <c r="Z83" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA83" s="4" t="n">
+      <c r="AA83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB83" s="4" t="n">
+      <c r="AB83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AC83" s="4" t="n">
+      <c r="AC83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AD83" s="4" t="n">
+      <c r="AD83" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH83" s="1" t="s">
@@ -7605,84 +6862,76 @@
         <v>0.0033</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Z84" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA84" s="4" t="n">
+      <c r="AA84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB84" s="4" t="n">
+      <c r="AB84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AC84" s="4" t="n">
+      <c r="AC84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AD84" s="4" t="n">
+      <c r="AD84" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Z85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA85" s="4" t="n">
+      <c r="AA85" s="1" t="n">
         <v>15.9868773346636</v>
       </c>
-      <c r="AB85" s="4" t="n">
+      <c r="AB85" s="1" t="n">
         <v>11.2194716101016</v>
       </c>
-      <c r="AC85" s="4" t="n">
+      <c r="AC85" s="1" t="n">
         <v>14.9153992840443</v>
       </c>
-      <c r="AD85" s="4" t="n">
+      <c r="AD85" s="1" t="n">
         <v>10.2173901622868</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="0"/>
+        <v>64</v>
+      </c>
       <c r="Z86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA86" s="4" t="n">
+      <c r="AA86" s="1" t="n">
         <v>42.1508168132563</v>
       </c>
-      <c r="AB86" s="4" t="n">
+      <c r="AB86" s="1" t="n">
         <v>40.2854015773321</v>
       </c>
-      <c r="AC86" s="4" t="n">
+      <c r="AC86" s="1" t="n">
         <v>31.843754354002</v>
       </c>
-      <c r="AD86" s="4" t="n">
+      <c r="AD86" s="1" t="n">
         <v>32.5671196753814</v>
       </c>
       <c r="AH86" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI86" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ86" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="0"/>
+        <v>68</v>
+      </c>
       <c r="AI87" s="1" t="n">
         <v>445.6392</v>
       </c>
@@ -7692,31 +6941,31 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7753,10 +7002,10 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7768,18 +7017,18 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -7789,7 +7038,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -7800,7 +7049,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -7811,7 +7060,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -7821,19 +7070,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>1.20662279358801</v>
       </c>
@@ -7844,10 +7089,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7859,18 +7104,18 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -7880,7 +7125,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -7891,7 +7136,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -7902,7 +7147,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -7912,19 +7157,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>1.49929258177166</v>
       </c>
@@ -7935,10 +7176,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7950,18 +7191,18 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -7971,7 +7212,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -7982,7 +7223,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -7993,7 +7234,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -8003,19 +7244,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>0.029038112522686</v>
       </c>
@@ -8026,10 +7263,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8041,18 +7278,18 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -8171,19 +7408,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>0.775853358798865</v>
       </c>
@@ -8194,10 +7427,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8209,18 +7442,18 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -8339,19 +7572,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>2.60672949240146</v>
       </c>
@@ -8362,10 +7591,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8377,18 +7606,18 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -8507,19 +7736,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>5.5328785133844</v>
       </c>
@@ -8530,10 +7755,171 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="82.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>